--- a/Resources/testdata/Excelsheet.xlsx
+++ b/Resources/testdata/Excelsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15990" windowHeight="5880"/>
+    <workbookView windowWidth="15735" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,27 +17,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>mobilenumber</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
-    <t>emaiid</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>mobilenumber</t>
-  </si>
-  <si>
-    <t>http://www.cleartrip.com</t>
-  </si>
-  <si>
     <t>saianusha.p7@gmail.com</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>6301657207</t>
+  </si>
+  <si>
+    <t>an</t>
   </si>
 </sst>
 </file>
@@ -58,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,15 +74,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,13 +109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -113,9 +119,48 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,29 +179,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -165,13 +203,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -179,38 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,181 +231,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,26 +458,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,11 +486,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,144 +539,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,7 +995,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1009,7 +1003,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="24.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="10.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="15.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1037,7 +1031,7 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
@@ -1049,14 +1043,13 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.cleartrip.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="saianusha.p7@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="saianusha.p7@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
